--- a/output/fit_clients/fit_round_50.xlsx
+++ b/output/fit_clients/fit_round_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6458476222.019288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003231698148663462</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.372150883858574</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.931687090542107</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.372150883858574</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4837120181.576234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003788616011981044</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.890486248330232</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.8867834268232935</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.890486248330232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5542432695.820467</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003405827132098442</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.566270694293763</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9424769373969686</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.566270694293763</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3638119238.650728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004998234308297897</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.920557096823592</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8178805573262082</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.920557096823592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5259808806.26872</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001804327534360422</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>17</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.467199355061618</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.812661145567337</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.467199355061618</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7385091049.534698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001127121923112926</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>10</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1585858159677167</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.018516290247909</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.2766945791757668</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.018516290247909</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5156069433.495669</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003026588433918638</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.517689387471572</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9318657354717718</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.517689387471572</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6047042139.019043</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005316632901740751</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.477148465875774</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.8881540601894765</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.477148465875774</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3150373039.266862</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.003473053148595806</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.020435835280449</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9263348856614461</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.020435835280449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4599430171.420383</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001489910388478413</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.861274322633128</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7755107222375498</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.861274322633128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6514998333.410751</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001475616108718461</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.975854291637606</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9918876378525434</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.975854291637606</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5491940499.914787</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003223834849414571</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>13</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.665507938724416</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9894879890431704</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.665507938724416</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6043588866.624949</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002394838427005476</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.378711185974959</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.882475013198937</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.378711185974959</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5267230941.383251</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.005470392415905574</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.310133614008372</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9496589826178742</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.310133614008372</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5848758071.940598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.005215544576086827</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.273576518320911</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.8891482410973895</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.273576518320911</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6305585546.65895</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002612310655082111</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.30707430744272</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9221511003106965</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.30707430744272</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5067931506.382445</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001173568851958702</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.9414615900555838</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4.667393657732231</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.230336068347204</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-4.667393657732231</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3264979035.060457</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002027884510064925</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.805909360732551</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8708784270246532</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.805909360732551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5353980834.887679</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001353253242500043</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.820777710851214</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8291529173199776</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.820777710851214</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5669212106.482501</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004890903224080675</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.965630525158952</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8263479449102571</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.965630525158952</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5863148618.137849</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004392923007857095</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6786150328325072</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.308370845858705</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8905653835143293</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.308370845858705</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6317413020.353862</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001375434964623906</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.8823673294867861</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.38455964983493</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.072216147771969</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.38455964983493</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6162886463.585957</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004206054418412019</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5663310892153597</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.311534709699952</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9498166801728032</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.311534709699952</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5185143154.902718</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002595063419884456</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.669440084533289</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9265145625714332</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.669440084533289</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3580233799.53998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.00113924566300069</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.528794343433068</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7842941141359083</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.528794343433068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7353262341.23859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.002634759839114584</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971371</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.940198161484042</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9023466551712908</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.940198161484042</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6019086347.311518</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005585810014080032</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.076336510399107</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8778294792535629</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.076336510399107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7441657670.970613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001532070273875933</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.493071131810316</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9663832427330714</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.493071131810316</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8505506935.756262</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003571678249386461</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.074719999499029</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8835383864649967</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.074719999499029</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6315716084.384996</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002239517040418731</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>12</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.873094485001356</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9294305171042634</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.873094485001356</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3692618033.565084</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001471821352286948</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.491660279677193</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9199314510697453</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.491660279677193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5821912509.068557</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003344976142313444</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.481926437875524</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8290190694175112</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.481926437875524</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6007041256.456356</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004021646426776277</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.756201469213309</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7693609372074338</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.756201469213309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6760631994.485495</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001854637773208014</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.19849533699378</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9123330283740202</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.19849533699378</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5974091821.130607</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003225310681766956</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.201179809756184</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.995722744187707</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.201179809756184</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6353687315.013661</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004321260145436347</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.089496009692234</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9865808201710611</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.089496009692234</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4585746527.340627</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003928959336687537</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.834325222177971</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8732227732909144</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.834325222177971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6031459711.808052</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002164869571511557</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.399071141672376</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8384944060038556</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.399071141672376</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>4780136840.291139</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003683609399957453</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.239842520408484</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9590371781050812</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.239842520408484</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6011032381.497349</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001445101670839172</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.408832004609574</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9091181537675069</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.408832004609574</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5157208732.873856</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.004338150901331317</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4828019614205859</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.813929641019306</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.8362143371335553</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.813929641019306</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6185976194.389471</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004945200290100939</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.507491594202739</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9167432233263667</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.507491594202739</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5211733405.124299</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001926233985178375</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.817309618973697</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.896695616676613</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.817309618973697</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>6001025183.931818</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001288652309942665</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4985405833195761</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.198956852318732</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.8287152734530649</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.198956852318732</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11347810058.1853</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004521314774856215</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.074655956342592</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8070008817675735</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.074655956342592</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8764823151.059414</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003135199688211656</v>
       </c>
       <c r="G47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.305001734622131</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8958956318763097</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.305001734622131</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5235390988.185384</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003116663776670259</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.931613134297206</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.266284592613916</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.931613134297206</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5686690773.611744</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004360057408723604</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9536719518796681</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.048264378413223</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.15582339040183</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.048264378413223</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6216701497.268903</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00401334522850499</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.489181291939317</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.02557140051594</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.489181291939317</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3747841446.507833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004923698761637569</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.867571524934576</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9208310720548256</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.867571524934576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6685275092.642231</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002202539665574318</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.98216049805801</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8264822253985615</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.98216049805801</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4531294849.165868</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002154710060727997</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.219624469638941</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9068666056111554</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.219624469638941</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6739039411.932912</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003518947576406467</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>12</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.974962959029019</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.719821573389555</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.128842683226802</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.719821573389555</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5861243675.01472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003178407341666867</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.688240062710599</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8581610174081854</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.688240062710599</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6160865253.776476</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002803968511185166</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.423553817003757</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9058306182372029</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.423553817003757</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6603263105.733777</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003188244059466639</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.8616018249482377</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.007024011867043</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.024780873339804</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.007024011867043</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6432198237.237728</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001830036074914407</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.549044428185491</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7842941141359083</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.549044428185491</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7296623775.353055</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003940027662723427</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.011859517469853</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8687193860985968</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.011859517469853</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4493453479.164302</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003121242086534409</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.927607242432211</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8155812302761863</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.927607242432211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6684066743.539707</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.004687892094000189</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5414157911385067</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.277571625676187</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.8558119125419767</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.277571625676187</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4434178620.60611</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003673089093778301</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.497420657197593</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8395473952763404</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.497420657197593</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8605008402.073566</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005604443726633675</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.659364954238959</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8719559427480497</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.659364954238959</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4157319238.054787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003679305598187104</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.196220209756941</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9147531066154309</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.196220209756941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7308995011.605445</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005396314338152873</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.655164241031637</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9947235195946739</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.655164241031637</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6203267547.251147</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.00272635244483429</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.424142469617944</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9036322831883711</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.424142469617944</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6733895532.070305</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004788095340486033</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.97166719022943</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8870962198061418</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.97166719022943</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8513832218.943472</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002820280652614442</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.782902646473672</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7126980047572297</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.782902646473672</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>6003344512.893048</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008935077408645138</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.95646283502387</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9726520096236545</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.95646283502387</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6961385626.579752</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003420242905297869</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.053454899563854</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9060143614753152</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.053454899563854</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3524727530.957226</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002524510952463293</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.562207145039814</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7997811702521365</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.562207145039814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7616531334.147999</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002164949743420754</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>11</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.913054235349123</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.01637040515054</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.913054235349123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6504106878.556359</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001116832338331647</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.369224312536205</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9381877182485727</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.369224312536205</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5081087382.303128</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004244519618243963</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.140728038488279</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8607334216814885</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.140728038488279</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5631446714.50559</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003262850123042719</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.882910347445303</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8275504993142641</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.882910347445303</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6190549918.4859</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002512638744648721</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.786379678525537</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8799031117678903</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.786379678525537</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6013155878.912058</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005951726879812306</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.3962555945115084</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.92319871245803</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.7811376424338886</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.92319871245803</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5337957263.646949</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004939218031235535</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.733814997030534</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8662347555970195</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.733814997030534</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7722050702.720019</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002534462249267477</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.806743413021097</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9530282144433969</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.806743413021097</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>4991704131.161592</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002568836929924861</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.3178920458712527</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.994376506516662</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.5903510926222553</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.994376506516662</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7672756406.907692</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00405587117352634</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.809763368363915</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9613396904259327</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.809763368363915</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7574702365.161186</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005248975699417707</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.128642468774347</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8823492540247942</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.128642468774347</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9610549829.11064</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003504369918526957</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>17</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8677535808106949</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.311716872320952</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.008284704160849</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.311716872320952</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5521280448.041106</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00382293304556649</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.670407757786405</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9120897263851864</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.670407757786405</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3766832285.938684</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003292510642641489</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>14</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.3312535983273548</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.546309693861072</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.5486914759903266</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.546309693861072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9068046386.032154</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.00179481147098139</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.179773867017655</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9600157500918736</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.179773867017655</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4019986510.445758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001531588180671386</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>15</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.50865175548762</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9292514040135578</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.50865175548762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>8982190286.695826</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004554116902762787</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.849539778833284</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8093931414759018</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.849539778833284</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6270630629.57388</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00414222023698324</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.15505846449126</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9177064331965564</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.15505846449126</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5604221685.103368</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003358025791224373</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.978978937990772</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9155366141310686</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.978978937990772</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>4932081106.899248</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004450703211078062</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.104036705321051</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8268178312092946</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.104036705321051</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5078482431.191071</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002891488965177628</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.7037718186845371</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.278179191031192</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.13552823469101</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.278179191031192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6194519401.269476</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001380997462403669</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>12</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.817080661927995</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4898979485566356</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.817080661927995</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5730129665.745543</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001414239380307108</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.2346475972745216</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.936337802737254</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.5799650997212694</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.936337802737254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7382071242.697259</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002410957545845481</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.321850866744301</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9047321184074935</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.321850866744301</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9018946877.238113</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003349424938885601</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>15</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.2866131413620119</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.574410736380509</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.4693923753059771</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.574410736380509</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6020341244.901312</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.003746570606610382</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.190658514339934</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8641283240074898</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.190658514339934</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7836049604.006139</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004586334728477695</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.425794654716543</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8700547045473261</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.425794654716543</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3754308252.86503</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005375775465376126</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.848431558958825</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8697357827518952</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.848431558958825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>4634162672.540632</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003493919591501125</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.319652481449708</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8193664592810824</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.319652481449708</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5640018480.684359</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.00168536626002493</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5839271653067716</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.084489885716966</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8524123350414498</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.084489885716966</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_50.xlsx
+++ b/output/fit_clients/fit_round_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6458476222.019288</v>
+        <v>1658992238.35298</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003231698148663462</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.08191144778805626</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03021326692417584</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>829496068.7960863</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4837120181.576234</v>
+        <v>1914802419.141769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003788616011981044</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+        <v>0.1427547425733209</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.05015166727319147</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>957401236.3006643</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5542432695.820467</v>
+        <v>3695674851.670219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003405827132098442</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1540682825311472</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03210961271446611</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1847837418.312134</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3638119238.650728</v>
+        <v>3392482941.102525</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004998234308297897</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.06664388734998181</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04296079831468605</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>19</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1696241514.332206</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5259808806.26872</v>
+        <v>2287054966.087306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001804327534360422</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
+        <v>0.1112549696900026</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0564450495161869</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1143527481.418286</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7385091049.534698</v>
+        <v>2830395774.816355</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001127121923112926</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>17</v>
+        <v>0.09168852704939778</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03288897555083618</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1415197868.48698</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5156069433.495669</v>
+        <v>3381487998.228341</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003026588433918638</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>15</v>
+        <v>0.1471810714489613</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02172274261641085</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1690744095.48321</v>
       </c>
     </row>
     <row r="9">
@@ -679,19 +731,25 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6047042139.019043</v>
+        <v>2008991721.714616</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005316632901740751</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>15</v>
+        <v>0.1547212629538297</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03410332069655186</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1004495886.083275</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>571</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3766717364.31705</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1745292286115296</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03552700263246274</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3150373039.266862</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.003473053148595806</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v>21</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1883358685.859224</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4599430171.420383</v>
+        <v>3167111325.754717</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001489910388478413</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1672220995179155</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04993625881828544</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1583555617.358</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6514998333.410751</v>
+        <v>2602359721.427276</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001475616108718461</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>14</v>
+        <v>0.1495616854583716</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05069695121020491</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>18</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1301179842.167749</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5491940499.914787</v>
+        <v>3427374903.840701</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003223834849414571</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
+        <v>0.06615379333746255</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02741433927048868</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1713687535.814177</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6043588866.624949</v>
+        <v>2427525942.271711</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002394838427005476</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.162225546370432</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.02843127612480251</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1213763046.861775</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5267230941.383251</v>
+        <v>1147110662.748746</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005470392415905574</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.07544393395164935</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04469292043240987</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>573555336.7399096</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5848758071.940598</v>
+        <v>2703256178.475874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005215544576086827</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15</v>
+        <v>0.1105670231832054</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03924592462916851</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1351628101.754299</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6305585546.65895</v>
+        <v>3947761873.821344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002612310655082111</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1447799408918733</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05127106736742223</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1973880973.901931</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5067931506.382445</v>
+        <v>3862498890.993095</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001173568851958702</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>14</v>
+        <v>0.1144273143382782</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02422190778108435</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1931249413.177472</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3264979035.060457</v>
+        <v>1121244752.679537</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002027884510064925</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1160404951463274</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0237675200522348</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>560622434.9618951</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5353980834.887679</v>
+        <v>2002622843.129838</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001353253242500043</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1399364316585841</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03122169638809526</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1001311447.497669</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5669212106.482501</v>
+        <v>2726276874.959121</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004890903224080675</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.06434199108007002</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04519106112948963</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1363138403.908</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5863148618.137849</v>
+        <v>2845583756.345997</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004392923007857095</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1365028118997159</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.04947180493128504</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1422791948.820783</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6317413020.353862</v>
+        <v>1177000720.791737</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001375434964623906</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+        <v>0.1804934930502247</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04679698390341583</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>588500400.6185682</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6162886463.585957</v>
+        <v>3978495662.116147</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004206054418412019</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
+        <v>0.09500634355145365</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02912232438139876</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1989247800.343508</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5185143154.902718</v>
+        <v>1011734926.799082</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002595063419884456</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.0874389800889472</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02238316022831008</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>505867524.547057</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3580233799.53998</v>
+        <v>1285553118.609632</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00113924566300069</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1119627004855687</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0318520095674129</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>642776601.1492584</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7353262341.23859</v>
+        <v>4514020361.746941</v>
       </c>
       <c r="F27" t="n">
-        <v>0.002634759839114584</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>15</v>
+        <v>0.1380681035765131</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02662834443509825</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2257010165.342045</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6019086347.311518</v>
+        <v>2862795272.7673</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005585810014080032</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>13</v>
+        <v>0.1416188190334578</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04559610596443807</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>17</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1431397635.556324</v>
       </c>
     </row>
     <row r="29">
@@ -1239,19 +1411,25 @@
         <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7441657670.970613</v>
+        <v>5215816883.035405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001532070273875933</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1168695205557403</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03190763653671846</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2607908373.97725</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8505506935.756262</v>
+        <v>2086119514.507292</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003571678249386461</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>16</v>
+        <v>0.1117437158932909</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03487054099679633</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1043059804.424753</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6315716084.384996</v>
+        <v>1454469392.248995</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002239517040418731</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.1042249587910176</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04384289340872276</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>727234587.5852208</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3692618033.565084</v>
+        <v>1332578966.399464</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001471821352286948</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1049883965057037</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02797516206996735</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>666289516.757746</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5821912509.068557</v>
+        <v>2422497280.06907</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003344976142313444</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1271033468087575</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.03715074474187519</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1211248684.719012</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6007041256.456356</v>
+        <v>1304805269.228501</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004021646426776277</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>16</v>
+        <v>0.07587278474740511</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02145938058015866</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>652402622.3334128</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6760631994.485495</v>
+        <v>1219176076.819507</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001854637773208014</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
+        <v>0.08557630291672019</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03911318172131975</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>609588008.7749674</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5974091821.130607</v>
+        <v>2366043046.487066</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003225310681766956</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14</v>
+        <v>0.1421883707553422</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01920082760610716</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1183021555.820124</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6353687315.013661</v>
+        <v>2828897710.594907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004321260145436347</v>
-      </c>
-      <c r="G37" t="b">
+        <v>0.08919680373560526</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.02656977295258183</v>
+      </c>
+      <c r="H37" t="b">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1414448996.474091</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4585746527.340627</v>
+        <v>1922154907.369162</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003928959336687537</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09577716923288614</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02541128142411748</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>961077443.1773444</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6031459711.808052</v>
+        <v>2052824014.754275</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002164869571511557</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1360744347180458</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02793685889870401</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1026411993.751592</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>4780136840.291139</v>
+        <v>1327273665.555189</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003683609399957453</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>14</v>
+        <v>0.1364714314569868</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05871489778265564</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>663636842.0616654</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6011032381.497349</v>
+        <v>2178955391.398626</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001445101670839172</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>14</v>
+        <v>0.1281445978079336</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.034619551553301</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>13</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1089477752.229298</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5157208732.873856</v>
+        <v>3341221133.127732</v>
       </c>
       <c r="F42" t="n">
-        <v>0.004338150901331317</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.1020495231630928</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04622550955772972</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1670610550.339534</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6185976194.389471</v>
+        <v>3047507549.58155</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004945200290100939</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
+        <v>0.1582808254725385</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02004212539587944</v>
+      </c>
+      <c r="H43" t="b">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1523753768.289582</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5211733405.124299</v>
+        <v>1825520299.743802</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001926233985178375</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.08752252700480347</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0227865106876</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>912760221.2697712</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>6001025183.931818</v>
+        <v>2409953205.510658</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001288652309942665</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.152181162213258</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04803874782160988</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1204976634.761511</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>11347810058.1853</v>
+        <v>5018755956.021308</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004521314774856215</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1426291054089874</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04462836727335986</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>18</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2509378005.767337</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8764823151.059414</v>
+        <v>3330363104.125844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003135199688211656</v>
-      </c>
-      <c r="G47" t="b">
+        <v>0.2013590465913493</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04457984935237269</v>
+      </c>
+      <c r="H47" t="b">
         <v>1</v>
       </c>
-      <c r="H47" t="n">
-        <v>6</v>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1665181513.106372</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5235390988.185384</v>
+        <v>4144307840.167881</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003116663776670259</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
+        <v>0.07392093236562232</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03739547329564716</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2072153945.938666</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5686690773.611744</v>
+        <v>1946566352.768789</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004360057408723604</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.187116566427818</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03667135762621072</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>973283138.8319477</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6216701497.268903</v>
+        <v>3621238520.517688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00401334522850499</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1731765591339965</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04652039684261326</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1810619275.751602</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3747841446.507833</v>
+        <v>1009067994.145492</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004923698761637569</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1694259679342794</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04261832103530329</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>504534079.39065</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6685275092.642231</v>
+        <v>3540662381.68646</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002202539665574318</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.08651799536979325</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.03934049287842504</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1770331274.228237</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4531294849.165868</v>
+        <v>3285949387.690049</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002154710060727997</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1731153278001076</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02412463440931764</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1642974706.397588</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6739039411.932912</v>
+        <v>3077117180.853551</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003518947576406467</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>12</v>
+        <v>0.1292452724958353</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04703832006675982</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>17</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1538558581.934826</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4479870489.408569</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1597346689074424</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02086548401913926</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5861243675.01472</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.003178407341666867</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>16</v>
+      <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2239935240.634818</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6160865253.776476</v>
+        <v>1721707507.997333</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002803968511185166</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1231882937034146</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.0411424370497438</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>860853763.302012</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6603263105.733777</v>
+        <v>2782977845.059983</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003188244059466639</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1448165344803539</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02448212672852266</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>16</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1391488908.589812</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6432198237.237728</v>
+        <v>1488209222.749922</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001830036074914407</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>12</v>
+        <v>0.1766351138087956</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03812393146672316</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>744104643.4683136</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7296623775.353055</v>
+        <v>4832012310.395871</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003940027662723427</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.1129755078959703</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03265165040121106</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2416006090.891147</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4493453479.164302</v>
+        <v>3147306659.125674</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003121242086534409</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.187913291538081</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.03281088958285792</v>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1573653415.218051</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6684066743.539707</v>
+        <v>2690837082.09982</v>
       </c>
       <c r="F61" t="n">
-        <v>0.004687892094000189</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>12</v>
+        <v>0.1369595783120754</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02966255507160907</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>17</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1345418550.538946</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4434178620.60611</v>
+        <v>1723130548.980535</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003673089093778301</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>10</v>
+        <v>0.1874818527596256</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04352911593462336</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>861565290.9032549</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8605008402.073566</v>
+        <v>4574344161.665301</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005604443726633675</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.07225908777341257</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03520273873962404</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2287172117.458647</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4157319238.054787</v>
+        <v>3764174867.519659</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003679305598187104</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1695433837208921</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02870170535013107</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1882087452.893218</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7308995011.605445</v>
+        <v>4875253411.510752</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005396314338152873</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>13</v>
+        <v>0.1078579097669247</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.03157227403164321</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2437626671.94974</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6203267547.251147</v>
+        <v>3493303773.928312</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00272635244483429</v>
-      </c>
-      <c r="G66" t="b">
+        <v>0.1499971276930511</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03355275746396021</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="H66" t="n">
-        <v>10</v>
+      <c r="I66" t="n">
+        <v>15</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1746651833.251946</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6733895532.070305</v>
+        <v>3028335399.694516</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004788095340486033</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.07220644275519209</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03251070820929639</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1514167715.560406</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8513832218.943472</v>
+        <v>5727341117.882835</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002820280652614442</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
+        <v>0.1413710086522351</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04685810719750923</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2863670659.262775</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>6003344512.893048</v>
+        <v>1565661259.412334</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008935077408645138</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>10</v>
+        <v>0.1142585986715635</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05777029529379644</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>782830578.3684331</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>471</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2697039789.06294</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.08495431704328804</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03616632020615899</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="D70" t="n">
-        <v>490</v>
-      </c>
-      <c r="E70" t="n">
-        <v>6961385626.579752</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.003420242905297869</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13</v>
+      <c r="I70" t="n">
+        <v>14</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1348519851.665565</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3524727530.957226</v>
+        <v>4576112978.445678</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002524510952463293</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1539661004429322</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02408641260480573</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>18</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2288056563.157489</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7616531334.147999</v>
+        <v>1520789550.581158</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002164949743420754</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.07150409876151685</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04561745897206745</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>760394798.7875042</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6504106878.556359</v>
+        <v>2554261272.729414</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001116832338331647</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>11</v>
+        <v>0.08177819464032528</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03234654389837265</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1277130673.007001</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5081087382.303128</v>
+        <v>2550692596.252413</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004244519618243963</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1203510790775437</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02345569625623069</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>17</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1275346402.238929</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5631446714.50559</v>
+        <v>1819294414.195437</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003262850123042719</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>10</v>
+        <v>0.1328560638245395</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02860524748775201</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>909647188.0674695</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6190549918.4859</v>
+        <v>4329160687.891599</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002512638744648721</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>10</v>
+        <v>0.07642255682566651</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02793392917595139</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>11</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2164580342.349067</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6013155878.912058</v>
+        <v>2031948533.578089</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005951726879812306</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>17</v>
+        <v>0.1801229455552635</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02675592917062756</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1015974332.897295</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5337957263.646949</v>
+        <v>3009112364.023685</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004939218031235535</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.08521728386549961</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05600444075286359</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1504556218.581405</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7722050702.720019</v>
+        <v>1608021433.782379</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002534462249267477</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1733457092373552</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02782997515501604</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>804010769.8217582</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4991704131.161592</v>
+        <v>5516506974.421143</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002568836929924861</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>16</v>
+        <v>0.08505278276705726</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03366045370692641</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2758253561.948587</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7672756406.907692</v>
+        <v>4724099022.838861</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00405587117352634</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>9</v>
+        <v>0.09810351655480215</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0248383590354528</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2362049501.401365</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7574702365.161186</v>
+        <v>4072063888.957982</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005248975699417707</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1493406370844356</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01917661604810088</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2036031980.111733</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9610549829.11064</v>
+        <v>1873646219.655709</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003504369918526957</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>13</v>
+        <v>0.1367346749112344</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04000695277626603</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>936823079.296949</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5521280448.041106</v>
+        <v>2187228288.75514</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00382293304556649</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.1021450534697495</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04909953660086647</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1093614121.819952</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
+        <v>3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>541</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3666247593.025598</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.1149176084431327</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04649346275461963</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
       </c>
-      <c r="D85" t="n">
-        <v>512</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3766832285.938684</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.003292510642641489</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1833123930.079041</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9068046386.032154</v>
+        <v>2043329999.363998</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00179481147098139</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1302233149181972</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02211871709972919</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1021665033.217835</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4019986510.445758</v>
+        <v>1176362334.437025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001531588180671386</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1806454617174059</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02711070810256891</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>588181216.6125326</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>8982190286.695826</v>
+        <v>3071318227.568314</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004554116902762787</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1529709087019039</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02848185304445846</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>19</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1535659151.129857</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6270630629.57388</v>
+        <v>3323480260.342288</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00414222023698324</v>
-      </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="n">
-        <v>10</v>
+        <v>0.1596995334377486</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02600256676968989</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1661740144.429835</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5604221685.103368</v>
+        <v>1647376148.846164</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003358025791224373</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.1091603834521128</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05081640795776259</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>823688079.975278</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>4932081106.899248</v>
+        <v>2022153272.42808</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004450703211078062</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>15</v>
+        <v>0.160949835113282</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05021042531091695</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1011076605.393208</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5078482431.191071</v>
+        <v>2112550561.31353</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002891488965177628</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.0963557741984112</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03858101398262394</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1056275235.193943</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6194519401.269476</v>
+        <v>3499876356.227207</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001380997462403669</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1022272427164401</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03991199045703196</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>15</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1749938210.908648</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5730129665.745543</v>
+        <v>2145239132.248547</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001414239380307108</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>16</v>
+        <v>0.1165601171543567</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02989883351152864</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1072619583.226437</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7382071242.697259</v>
+        <v>2679663734.675392</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002410957545845481</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>13</v>
+        <v>0.113818368399876</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05263299781794517</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1339831890.238674</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9018946877.238113</v>
+        <v>1785425301.125756</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003349424938885601</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>13</v>
+        <v>0.1235690364170952</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03971480759716024</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>892712660.3111515</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6020341244.901312</v>
+        <v>4325333047.367527</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003746570606610382</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>13</v>
+        <v>0.1499461854278619</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02193290829418745</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2162666606.099591</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7836049604.006139</v>
+        <v>3087263399.701272</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004586334728477695</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>19</v>
+        <v>0.09886447967133512</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03232390823289171</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1543631690.334864</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3754308252.86503</v>
+        <v>2176573022.648396</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005375775465376126</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1401844087382504</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02850397601400007</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>15</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1088286437.408399</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4634162672.540632</v>
+        <v>2958519931.99058</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003493919591501125</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.1218854000676154</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02791447399721335</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1479259953.431583</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5640018480.684359</v>
+        <v>2586835009.900706</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00168536626002493</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>16</v>
+        <v>0.146925710128306</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04709924099414316</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1293417539.2521</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_50.xlsx
+++ b/output/fit_clients/fit_round_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1658992238.35298</v>
+        <v>2485236480.835452</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08191144778805626</v>
+        <v>0.09527244252744085</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03021326692417584</v>
+        <v>0.04478923789512323</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>829496068.7960863</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1914802419.141769</v>
+        <v>1910781180.40203</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1427547425733209</v>
+        <v>0.1769044457972466</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05015166727319147</v>
+        <v>0.04026746442168231</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
         <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>957401236.3006643</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3695674851.670219</v>
+        <v>5035756010.321006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1540682825311472</v>
+        <v>0.157738741188421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03210961271446611</v>
+        <v>0.03576477254806347</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1847837418.312134</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3392482941.102525</v>
+        <v>3596336992.394997</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06664388734998181</v>
+        <v>0.06732243878678777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04296079831468605</v>
+        <v>0.03202442597216009</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>19</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1696241514.332206</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2287054966.087306</v>
+        <v>2511034469.944092</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1112549696900026</v>
+        <v>0.1458266462827038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0564450495161869</v>
+        <v>0.04257916506008981</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1143527481.418286</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2830395774.816355</v>
+        <v>2742239628.42089</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09168852704939778</v>
+        <v>0.07309528590334145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03288897555083618</v>
+        <v>0.038772531282149</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1415197868.48698</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3381487998.228341</v>
+        <v>3934102550.085824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1471810714489613</v>
+        <v>0.171641165370306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02172274261641085</v>
+        <v>0.02912338196248972</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1690744095.48321</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2008991721.714616</v>
+        <v>2009235204.24711</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1547212629538297</v>
+        <v>0.1913922637641402</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03410332069655186</v>
+        <v>0.0268083202318792</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1004495886.083275</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3766717364.31705</v>
+        <v>4850825477.697816</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1745292286115296</v>
+        <v>0.1519314729494954</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03552700263246274</v>
+        <v>0.04401301623797714</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>21</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1883358685.859224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3167111325.754717</v>
+        <v>2949342974.427416</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1672220995179155</v>
+        <v>0.1531905144484202</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04993625881828544</v>
+        <v>0.03964575009494892</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1583555617.358</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2602359721.427276</v>
+        <v>2541887272.201388</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1495616854583716</v>
+        <v>0.1257078146126732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05069695121020491</v>
+        <v>0.05097445478419353</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1301179842.167749</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3427374903.840701</v>
+        <v>4970745959.476616</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06615379333746255</v>
+        <v>0.0642950673426527</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02741433927048868</v>
+        <v>0.02677269046766321</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1713687535.814177</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2427525942.271711</v>
+        <v>2399323273.467041</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162225546370432</v>
+        <v>0.1381103639908902</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02843127612480251</v>
+        <v>0.02977723190535396</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1213763046.861775</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1147110662.748746</v>
+        <v>1420693367.260837</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07544393395164935</v>
+        <v>0.09556232850632684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04469292043240987</v>
+        <v>0.03207704507976143</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>573555336.7399096</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2703256178.475874</v>
+        <v>1930872833.701939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1105670231832054</v>
+        <v>0.07055937432434101</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03924592462916851</v>
+        <v>0.0471230985414811</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1351628101.754299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3947761873.821344</v>
+        <v>4755068851.068472</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1447799408918733</v>
+        <v>0.1143632786073167</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05127106736742223</v>
+        <v>0.04319974427227598</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1973880973.901931</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3862498890.993095</v>
+        <v>3615552271.356951</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144273143382782</v>
+        <v>0.1202965293915149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02422190778108435</v>
+        <v>0.03058259132012305</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1931249413.177472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1121244752.679537</v>
+        <v>1246534086.371989</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1160404951463274</v>
+        <v>0.1883758545956747</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0237675200522348</v>
+        <v>0.01976227192709028</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>560622434.9618951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2002622843.129838</v>
+        <v>1871960565.179764</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1399364316585841</v>
+        <v>0.1080283900489314</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03122169638809526</v>
+        <v>0.02464693326920323</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1001311447.497669</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2726276874.959121</v>
+        <v>2597690143.912674</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06434199108007002</v>
+        <v>0.08934647364813497</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04519106112948963</v>
+        <v>0.03058500993484333</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1363138403.908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2845583756.345997</v>
+        <v>2966186867.160998</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1365028118997159</v>
+        <v>0.1451290566596375</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04947180493128504</v>
+        <v>0.03657017414817173</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>14</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1422791948.820783</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1177000720.791737</v>
+        <v>1316525741.534223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1804934930502247</v>
+        <v>0.1287787754543876</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04679698390341583</v>
+        <v>0.040711866882536</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>588500400.6185682</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3978495662.116147</v>
+        <v>2976048843.035369</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09500634355145365</v>
+        <v>0.1364819368354272</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02912232438139876</v>
+        <v>0.0318820859138566</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1989247800.343508</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011734926.799082</v>
+        <v>1085542842.842682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0874389800889472</v>
+        <v>0.08800534916572536</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02238316022831008</v>
+        <v>0.01926073140091775</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505867524.547057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1285553118.609632</v>
+        <v>1118646494.403895</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1119627004855687</v>
+        <v>0.07721452932578</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0318520095674129</v>
+        <v>0.02629027336301484</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>642776601.1492584</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4514020361.746941</v>
+        <v>3778857711.689558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1380681035765131</v>
+        <v>0.09826863410562238</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02662834443509825</v>
+        <v>0.01706674078077835</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2257010165.342045</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2862795272.7673</v>
+        <v>2481054775.912632</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1416188190334578</v>
+        <v>0.143438019460595</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04559610596443807</v>
+        <v>0.03921876172569513</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>17</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1431397635.556324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5215816883.035405</v>
+        <v>5378472825.713842</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1168695205557403</v>
+        <v>0.104278452884195</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03190763653671846</v>
+        <v>0.04496511871984806</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>23</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2607908373.97725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2086119514.507292</v>
+        <v>2264250750.284033</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1117437158932909</v>
+        <v>0.1322397859656292</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03487054099679633</v>
+        <v>0.03860231757926965</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1043059804.424753</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1454469392.248995</v>
+        <v>1470279000.444016</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1042249587910176</v>
+        <v>0.1003325157802992</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04384289340872276</v>
+        <v>0.0417041418502541</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>727234587.5852208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1332578966.399464</v>
+        <v>1401810648.05642</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1049883965057037</v>
+        <v>0.09791851292702045</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02797516206996735</v>
+        <v>0.03750525901785704</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>666289516.757746</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2422497280.06907</v>
+        <v>1906526973.342364</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1271033468087575</v>
+        <v>0.1963244408011233</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03715074474187519</v>
+        <v>0.03963551788392571</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1211248684.719012</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1304805269.228501</v>
+        <v>1222366078.0207</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07587278474740511</v>
+        <v>0.07597446368511235</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02145938058015866</v>
+        <v>0.02393994996850573</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>652402622.3334128</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1219176076.819507</v>
+        <v>895421010.5339715</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08557630291672019</v>
+        <v>0.07569633896094141</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03911318172131975</v>
+        <v>0.03780880864638719</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>609588008.7749674</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2366043046.487066</v>
+        <v>3078688225.172542</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1421883707553422</v>
+        <v>0.1714904861064098</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01920082760610716</v>
+        <v>0.02645051017359615</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>13</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1183021555.820124</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2828897710.594907</v>
+        <v>1918743964.314819</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08919680373560526</v>
+        <v>0.08528505005608686</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02656977295258183</v>
+        <v>0.03810428209517118</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1414448996.474091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1922154907.369162</v>
+        <v>1542369551.563101</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09577716923288614</v>
+        <v>0.1064357105011081</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02541128142411748</v>
+        <v>0.02683650527389307</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>961077443.1773444</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2052824014.754275</v>
+        <v>1760004298.787126</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1360744347180458</v>
+        <v>0.1527832799145757</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02793685889870401</v>
+        <v>0.0251934353214419</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1026411993.751592</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1327273665.555189</v>
+        <v>1567621492.916584</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364714314569868</v>
+        <v>0.1209038724575925</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05871489778265564</v>
+        <v>0.03978736866975389</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>663636842.0616654</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2178955391.398626</v>
+        <v>1860846274.732411</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281445978079336</v>
+        <v>0.1111713455920245</v>
       </c>
       <c r="G41" t="n">
-        <v>0.034619551553301</v>
+        <v>0.03675977875152995</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1089477752.229298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3341221133.127732</v>
+        <v>3530517940.068012</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1020495231630928</v>
+        <v>0.0999516782818532</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04622550955772972</v>
+        <v>0.03720948132296769</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1670610550.339534</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3047507549.58155</v>
+        <v>2194142374.015867</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1582808254725385</v>
+        <v>0.1691943331404501</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02004212539587944</v>
+        <v>0.01609760935231198</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1523753768.289582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1825520299.743802</v>
+        <v>2055633055.512861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08752252700480347</v>
+        <v>0.1028934129630664</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0227865106876</v>
+        <v>0.0238594805716839</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>912760221.2697712</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2409953205.510658</v>
+        <v>2212224226.79186</v>
       </c>
       <c r="F45" t="n">
-        <v>0.152181162213258</v>
+        <v>0.1317038897787603</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04803874782160988</v>
+        <v>0.04834829034982704</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1204976634.761511</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5018755956.021308</v>
+        <v>4328407481.12342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1426291054089874</v>
+        <v>0.1232095315600799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04462836727335986</v>
+        <v>0.04818373855376734</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2509378005.767337</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3330363104.125844</v>
+        <v>3705399843.186005</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2013590465913493</v>
+        <v>0.1430583201820346</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04457984935237269</v>
+        <v>0.04723496719846609</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1665181513.106372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4144307840.167881</v>
+        <v>3022470610.589105</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07392093236562232</v>
+        <v>0.105912531920561</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03739547329564716</v>
+        <v>0.03019304718958475</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2072153945.938666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1946566352.768789</v>
+        <v>1679358183.523182</v>
       </c>
       <c r="F49" t="n">
-        <v>0.187116566427818</v>
+        <v>0.1623106934513094</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03667135762621072</v>
+        <v>0.02803034375972712</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>973283138.8319477</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3621238520.517688</v>
+        <v>3765503772.785656</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1731765591339965</v>
+        <v>0.1716721971473672</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04652039684261326</v>
+        <v>0.03650007364668048</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>17</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1810619275.751602</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1009067994.145492</v>
+        <v>1374667834.322489</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1694259679342794</v>
+        <v>0.1942929058266223</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04261832103530329</v>
+        <v>0.04203994874732612</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>504534079.39065</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3540662381.68646</v>
+        <v>4101698971.898631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08651799536979325</v>
+        <v>0.09987651151454109</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03934049287842504</v>
+        <v>0.05556572472198929</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>21</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1770331274.228237</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3285949387.690049</v>
+        <v>2683949378.189437</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1731153278001076</v>
+        <v>0.1386017726656568</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02412463440931764</v>
+        <v>0.03338678205552929</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1642974706.397588</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3077117180.853551</v>
+        <v>4055798979.836295</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1292452724958353</v>
+        <v>0.156726749367491</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04703832006675982</v>
+        <v>0.04238504232060993</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>17</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1538558581.934826</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4479870489.408569</v>
+        <v>3586918909.635076</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1597346689074424</v>
+        <v>0.1539617910229867</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02086548401913926</v>
+        <v>0.02274111890760947</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2239935240.634818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1721707507.997333</v>
+        <v>1759345064.487643</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1231882937034146</v>
+        <v>0.1601920246724268</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0411424370497438</v>
+        <v>0.04237232673988939</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>860853763.302012</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2782977845.059983</v>
+        <v>3718462926.16811</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1448165344803539</v>
+        <v>0.1520604956150118</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02448212672852266</v>
+        <v>0.02636193336553235</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>16</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1391488908.589812</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1488209222.749922</v>
+        <v>1282072221.320622</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1766351138087956</v>
+        <v>0.1986632756238252</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03812393146672316</v>
+        <v>0.02744666828413518</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>744104643.4683136</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4832012310.395871</v>
+        <v>5269441719.123084</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1129755078959703</v>
+        <v>0.08384125505917993</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03265165040121106</v>
+        <v>0.03292656486754677</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2416006090.891147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3147306659.125674</v>
+        <v>2313476192.081243</v>
       </c>
       <c r="F60" t="n">
-        <v>0.187913291538081</v>
+        <v>0.1901057038080158</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03281088958285792</v>
+        <v>0.03030112663002199</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1573653415.218051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2690837082.09982</v>
+        <v>2712076007.307829</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1369595783120754</v>
+        <v>0.175844223251938</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02966255507160907</v>
+        <v>0.02062222726002202</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1345418550.538946</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1723130548.980535</v>
+        <v>1702966664.249442</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1874818527596256</v>
+        <v>0.184047844236118</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04352911593462336</v>
+        <v>0.0409257573306224</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>861565290.9032549</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4574344161.665301</v>
+        <v>4140832056.119771</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07225908777341257</v>
+        <v>0.06883064594806744</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03520273873962404</v>
+        <v>0.04515070739099256</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2287172117.458647</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3764174867.519659</v>
+        <v>3372943641.730086</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1695433837208921</v>
+        <v>0.150436425821648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02870170535013107</v>
+        <v>0.03019513542362564</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1882087452.893218</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4875253411.510752</v>
+        <v>5570253409.540164</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1078579097669247</v>
+        <v>0.1667427635952557</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03157227403164321</v>
+        <v>0.0309761445867171</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>18</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2437626671.94974</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3493303773.928312</v>
+        <v>5629479102.527617</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1499971276930511</v>
+        <v>0.1519412102976919</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03355275746396021</v>
+        <v>0.03495527883872421</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>15</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1746651833.251946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3028335399.694516</v>
+        <v>2387850146.742414</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07220644275519209</v>
+        <v>0.1000142298552249</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03251070820929639</v>
+        <v>0.04392060154701939</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>16</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1514167715.560406</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5727341117.882835</v>
+        <v>4682306634.456587</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1413710086522351</v>
+        <v>0.1569004770346927</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04685810719750923</v>
+        <v>0.04073632242357035</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>16</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2863670659.262775</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1565661259.412334</v>
+        <v>2251258555.855907</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1142585986715635</v>
+        <v>0.1796191686855732</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05777029529379644</v>
+        <v>0.04331508861724371</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>782830578.3684331</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2697039789.06294</v>
+        <v>2927354713.605361</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08495431704328804</v>
+        <v>0.08949661627181776</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03616632020615899</v>
+        <v>0.03777474398877393</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1348519851.665565</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4576112978.445678</v>
+        <v>4004081807.344327</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1539661004429322</v>
+        <v>0.1278191811407433</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02408641260480573</v>
+        <v>0.03062260064858103</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>18</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2288056563.157489</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1520789550.581158</v>
+        <v>2268421225.852327</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07150409876151685</v>
+        <v>0.07325945412686621</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04561745897206745</v>
+        <v>0.04637067729910284</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>760394798.7875042</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2554261272.729414</v>
+        <v>3332664123.247987</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08177819464032528</v>
+        <v>0.1029344700630953</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03234654389837265</v>
+        <v>0.04731647822719894</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1277130673.007001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2550692596.252413</v>
+        <v>2873953397.294403</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1203510790775437</v>
+        <v>0.1337549774051305</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02345569625623069</v>
+        <v>0.02716965283508694</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>17</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1275346402.238929</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1819294414.195437</v>
+        <v>1839126014.576454</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1328560638245395</v>
+        <v>0.1142705625253665</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02860524748775201</v>
+        <v>0.02891002834830208</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>909647188.0674695</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4329160687.891599</v>
+        <v>3559426159.262839</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07642255682566651</v>
+        <v>0.07631696845106761</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02793392917595139</v>
+        <v>0.02586711298168223</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2164580342.349067</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2031948533.578089</v>
+        <v>1641432966.777608</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1801229455552635</v>
+        <v>0.1795852229487359</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02675592917062756</v>
+        <v>0.03045571174466701</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1015974332.897295</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3009112364.023685</v>
+        <v>3160943006.312305</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08521728386549961</v>
+        <v>0.1188205891025981</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05600444075286359</v>
+        <v>0.05059368767646556</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1504556218.581405</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1608021433.782379</v>
+        <v>1736392829.155538</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1733457092373552</v>
+        <v>0.1716387506245145</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02782997515501604</v>
+        <v>0.033764589022171</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>804010769.8217582</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5516506974.421143</v>
+        <v>5467102193.125364</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08505278276705726</v>
+        <v>0.08725360392948787</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03366045370692641</v>
+        <v>0.02502685330812165</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2758253561.948587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4724099022.838861</v>
+        <v>3929781291.047531</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09810351655480215</v>
+        <v>0.1013441660843328</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0248383590354528</v>
+        <v>0.02770255386619175</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2362049501.401365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4072063888.957982</v>
+        <v>4572763124.93971</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1493406370844356</v>
+        <v>0.2140956305138518</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01917661604810088</v>
+        <v>0.02451135602810155</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2036031980.111733</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1873646219.655709</v>
+        <v>2032232577.496783</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1367346749112344</v>
+        <v>0.1289483016961375</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04000695277626603</v>
+        <v>0.04306797340209961</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>936823079.296949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2187228288.75514</v>
+        <v>2211331231.222032</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1021450534697495</v>
+        <v>0.1109146776235552</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04909953660086647</v>
+        <v>0.04795490341041602</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1093614121.819952</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3666247593.025598</v>
+        <v>3094157263.208141</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1149176084431327</v>
+        <v>0.1507575151220882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04649346275461963</v>
+        <v>0.04404517762282735</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1833123930.079041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2043329999.363998</v>
+        <v>2788797476.815569</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1302233149181972</v>
+        <v>0.1430766548510953</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02211871709972919</v>
+        <v>0.02409621910776497</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1021665033.217835</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1176362334.437025</v>
+        <v>1175673770.609736</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1806454617174059</v>
+        <v>0.1781699738622192</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02711070810256891</v>
+        <v>0.04191609914597757</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>588181216.6125326</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3071318227.568314</v>
+        <v>2260067458.870095</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1529709087019039</v>
+        <v>0.1454696701852072</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02848185304445846</v>
+        <v>0.02962872466136762</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>19</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1535659151.129857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323480260.342288</v>
+        <v>2119009931.487615</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1596995334377486</v>
+        <v>0.1082527262232571</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02600256676968989</v>
+        <v>0.03255918946017999</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>17</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1661740144.429835</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1647376148.846164</v>
+        <v>1523354987.524641</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1091603834521128</v>
+        <v>0.1324784310151745</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05081640795776259</v>
+        <v>0.03491082858841113</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>823688079.975278</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2022153272.42808</v>
+        <v>1541688848.504994</v>
       </c>
       <c r="F91" t="n">
-        <v>0.160949835113282</v>
+        <v>0.1713073171788596</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05021042531091695</v>
+        <v>0.04540889722526686</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1011076605.393208</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2112550561.31353</v>
+        <v>2077926196.714065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0963557741984112</v>
+        <v>0.09533957622638871</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03858101398262394</v>
+        <v>0.03502057526548587</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1056275235.193943</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3499876356.227207</v>
+        <v>4337506782.296932</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022272427164401</v>
+        <v>0.08657328833622341</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03991199045703196</v>
+        <v>0.04700456255367007</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>15</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1749938210.908648</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2145239132.248547</v>
+        <v>2217040259.602963</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1165601171543567</v>
+        <v>0.1583763234460475</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02989883351152864</v>
+        <v>0.03665260040184627</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1072619583.226437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2679663734.675392</v>
+        <v>2513602221.62121</v>
       </c>
       <c r="F95" t="n">
-        <v>0.113818368399876</v>
+        <v>0.1063961874039155</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05263299781794517</v>
+        <v>0.03651556118262601</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1339831890.238674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1785425301.125756</v>
+        <v>1855893630.82647</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1235690364170952</v>
+        <v>0.1027254154816079</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03971480759716024</v>
+        <v>0.03265009396834668</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>892712660.3111515</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4325333047.367527</v>
+        <v>4997345735.254086</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1499461854278619</v>
+        <v>0.107287446214034</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02193290829418745</v>
+        <v>0.02034625458496511</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2162666606.099591</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3087263399.701272</v>
+        <v>2604890381.430178</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09886447967133512</v>
+        <v>0.09231999230142598</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03232390823289171</v>
+        <v>0.02338354182505622</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1543631690.334864</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2176573022.648396</v>
+        <v>2944749537.630807</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1401844087382504</v>
+        <v>0.1025880160688959</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02850397601400007</v>
+        <v>0.02975090167245077</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1088286437.408399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2958519931.99058</v>
+        <v>3747955627.924609</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1218854000676154</v>
+        <v>0.1232815737126809</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02791447399721335</v>
+        <v>0.02557804752124642</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1479259953.431583</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2586835009.900706</v>
+        <v>2601474948.659742</v>
       </c>
       <c r="F101" t="n">
-        <v>0.146925710128306</v>
+        <v>0.1914481123129925</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04709924099414316</v>
+        <v>0.0446786745535395</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>21</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1293417539.2521</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_50.xlsx
+++ b/output/fit_clients/fit_round_50.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2485236480.835452</v>
+        <v>2105225966.097103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09527244252744085</v>
+        <v>0.096238611274893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04478923789512323</v>
+        <v>0.03406216085002887</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1910781180.40203</v>
+        <v>1636100313.192033</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1769044457972466</v>
+        <v>0.1474159639945847</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04026746442168231</v>
+        <v>0.04117479857795985</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5035756010.321006</v>
+        <v>4717415848.89759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157738741188421</v>
+        <v>0.1637477189901698</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03576477254806347</v>
+        <v>0.03549675155465243</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3596336992.394997</v>
+        <v>2643610169.771171</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06732243878678777</v>
+        <v>0.08823583735861043</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03202442597216009</v>
+        <v>0.03245926171680364</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2511034469.944092</v>
+        <v>2070686648.013093</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1458266462827038</v>
+        <v>0.1259605531969887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04257916506008981</v>
+        <v>0.05226037722557204</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2742239628.42089</v>
+        <v>2922379237.410189</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07309528590334145</v>
+        <v>0.0762646646943789</v>
       </c>
       <c r="G7" t="n">
-        <v>0.038772531282149</v>
+        <v>0.0457857192653383</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3934102550.085824</v>
+        <v>3948165245.430215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.171641165370306</v>
+        <v>0.1439612201797558</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02912338196248972</v>
+        <v>0.02091951307608274</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2009235204.24711</v>
+        <v>1655504760.543027</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1913922637641402</v>
+        <v>0.1789760253229215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0268083202318792</v>
+        <v>0.03512145771967699</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4850825477.697816</v>
+        <v>4692882087.818017</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1519314729494954</v>
+        <v>0.1991753034787301</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04401301623797714</v>
+        <v>0.03597037239047252</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2949342974.427416</v>
+        <v>3641018643.421423</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1531905144484202</v>
+        <v>0.1476020292515977</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03964575009494892</v>
+        <v>0.03232441287895321</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2541887272.201388</v>
+        <v>2448166327.825887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1257078146126732</v>
+        <v>0.1288510784036416</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05097445478419353</v>
+        <v>0.03662268407167723</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4970745959.476616</v>
+        <v>3574755956.500426</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0642950673426527</v>
+        <v>0.06459775073340927</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02677269046766321</v>
+        <v>0.02047248221769347</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2399323273.467041</v>
+        <v>3557160997.250423</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1381103639908902</v>
+        <v>0.1821743760961356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02977723190535396</v>
+        <v>0.03148008984292157</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1420693367.260837</v>
+        <v>1529246006.039185</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09556232850632684</v>
+        <v>0.09814971651128949</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03207704507976143</v>
+        <v>0.04606124320519221</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1930872833.701939</v>
+        <v>2389550778.593646</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07055937432434101</v>
+        <v>0.09224956178193952</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0471230985414811</v>
+        <v>0.0516173458733979</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4755068851.068472</v>
+        <v>4542444496.634448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1143632786073167</v>
+        <v>0.1281850041154052</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04319974427227598</v>
+        <v>0.04576363247131636</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3615552271.356951</v>
+        <v>3760620140.602321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1202965293915149</v>
+        <v>0.1717358215573778</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03058259132012305</v>
+        <v>0.02132690965249207</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1246534086.371989</v>
+        <v>955046505.5623988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1883758545956747</v>
+        <v>0.1546434987135194</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01976227192709028</v>
+        <v>0.02046096033758057</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1871960565.179764</v>
+        <v>2482991030.186461</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1080283900489314</v>
+        <v>0.161875101657391</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02464693326920323</v>
+        <v>0.02728397163601638</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2597690143.912674</v>
+        <v>2123832682.566956</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08934647364813497</v>
+        <v>0.07630085521935277</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03058500993484333</v>
+        <v>0.04576741414834643</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2966186867.160998</v>
+        <v>3516983502.580122</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1451290566596375</v>
+        <v>0.1303533098148668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03657017414817173</v>
+        <v>0.04671589272509993</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1316525741.534223</v>
+        <v>961358002.3679751</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1287787754543876</v>
+        <v>0.1367791557259562</v>
       </c>
       <c r="G23" t="n">
-        <v>0.040711866882536</v>
+        <v>0.05359021830692042</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2976048843.035369</v>
+        <v>2702496131.221938</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1364819368354272</v>
+        <v>0.1118687105507762</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0318820859138566</v>
+        <v>0.02842686219895319</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,16 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1085542842.842682</v>
+        <v>958607113.252764</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08800534916572536</v>
+        <v>0.1081765626978651</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01926073140091775</v>
+        <v>0.02412474505823962</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1118646494.403895</v>
+        <v>1098600988.715754</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07721452932578</v>
+        <v>0.1031762216804294</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02629027336301484</v>
+        <v>0.03374596951055427</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3778857711.689558</v>
+        <v>4161253265.89231</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09826863410562238</v>
+        <v>0.107118538558118</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01706674078077835</v>
+        <v>0.02206451089057657</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2481054775.912632</v>
+        <v>3681221658.39742</v>
       </c>
       <c r="F28" t="n">
-        <v>0.143438019460595</v>
+        <v>0.1249178643683754</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03921876172569513</v>
+        <v>0.03811624120379491</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5378472825.713842</v>
+        <v>4089919422.088531</v>
       </c>
       <c r="F29" t="n">
-        <v>0.104278452884195</v>
+        <v>0.1264849795685981</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04496511871984806</v>
+        <v>0.0364246942716848</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2264250750.284033</v>
+        <v>1936579851.569813</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1322397859656292</v>
+        <v>0.1214003573852148</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03860231757926965</v>
+        <v>0.03576941616251225</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1470279000.444016</v>
+        <v>1433182055.084054</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1003325157802992</v>
+        <v>0.09537740754658892</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0417041418502541</v>
+        <v>0.04335266810726599</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1401810648.05642</v>
+        <v>1498237863.984722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09791851292702045</v>
+        <v>0.1009162858776643</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03750525901785704</v>
+        <v>0.03367104602956912</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1906526973.342364</v>
+        <v>2163456484.289358</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1963244408011233</v>
+        <v>0.1738130003520531</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03963551788392571</v>
+        <v>0.04971315776079766</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1222366078.0207</v>
+        <v>1238843044.006123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07597446368511235</v>
+        <v>0.1077496495939378</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02393994996850573</v>
+        <v>0.02355543277521217</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>895421010.5339715</v>
+        <v>1343583749.487604</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07569633896094141</v>
+        <v>0.07313029391098463</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03780880864638719</v>
+        <v>0.03136439336857841</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3078688225.172542</v>
+        <v>2103641641.779168</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1714904861064098</v>
+        <v>0.1587776377838364</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02645051017359615</v>
+        <v>0.02102359388907972</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1918743964.314819</v>
+        <v>1798031782.433374</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08528505005608686</v>
+        <v>0.09276447495365271</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03810428209517118</v>
+        <v>0.03077168565529814</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1542369551.563101</v>
+        <v>2044112694.145581</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1064357105011081</v>
+        <v>0.08524584153850748</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02683650527389307</v>
+        <v>0.02785016660125044</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1760004298.787126</v>
+        <v>2098939989.573083</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1527832799145757</v>
+        <v>0.1800768904375627</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0251934353214419</v>
+        <v>0.02048092021852115</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1567621492.916584</v>
+        <v>1794248801.973032</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1209038724575925</v>
+        <v>0.1322480910069994</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03978736866975389</v>
+        <v>0.0590256698649558</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1860846274.732411</v>
+        <v>2786574355.63903</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1111713455920245</v>
+        <v>0.1201673158718128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03675977875152995</v>
+        <v>0.04369103819126765</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3530517940.068012</v>
+        <v>3063150139.589594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0999516782818532</v>
+        <v>0.0769836018348625</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03720948132296769</v>
+        <v>0.04573641335640678</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2194142374.015867</v>
+        <v>2681233289.093677</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1691943331404501</v>
+        <v>0.1743021382428424</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01609760935231198</v>
+        <v>0.02283335766921344</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2055633055.512861</v>
+        <v>2231189417.411201</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1028934129630664</v>
+        <v>0.1020742146956551</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0238594805716839</v>
+        <v>0.03130025460761195</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2212224226.79186</v>
+        <v>1990796150.073844</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1317038897787603</v>
+        <v>0.1668973238971488</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04834829034982704</v>
+        <v>0.03984164695598292</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4328407481.12342</v>
+        <v>4803228321.181678</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1232095315600799</v>
+        <v>0.1711842175074574</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04818373855376734</v>
+        <v>0.04677837537165835</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3705399843.186005</v>
+        <v>4024732838.069316</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1430583201820346</v>
+        <v>0.1336756596038371</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04723496719846609</v>
+        <v>0.05522291374059771</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3022470610.589105</v>
+        <v>3416316503.988579</v>
       </c>
       <c r="F48" t="n">
-        <v>0.105912531920561</v>
+        <v>0.08145824156989129</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03019304718958475</v>
+        <v>0.02501871822514887</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1679358183.523182</v>
+        <v>1597479265.902069</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1623106934513094</v>
+        <v>0.1435638295433567</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02803034375972712</v>
+        <v>0.04046024520949346</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3765503772.785656</v>
+        <v>3342352555.418354</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1716721971473672</v>
+        <v>0.1679656606946702</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03650007364668048</v>
+        <v>0.04708786302591358</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1374667834.322489</v>
+        <v>1255834703.167946</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1942929058266223</v>
+        <v>0.1444280383167002</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04203994874732612</v>
+        <v>0.05245419502624033</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4101698971.898631</v>
+        <v>4104062008.386368</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09987651151454109</v>
+        <v>0.1391536223403219</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05556572472198929</v>
+        <v>0.04277877403055847</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2683949378.189437</v>
+        <v>3621970746.663897</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1386017726656568</v>
+        <v>0.1620209903790605</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03338678205552929</v>
+        <v>0.03128219159377976</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4055798979.836295</v>
+        <v>4785701860.253053</v>
       </c>
       <c r="F54" t="n">
-        <v>0.156726749367491</v>
+        <v>0.1626066015742</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04238504232060993</v>
+        <v>0.04854099531154731</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3586918909.635076</v>
+        <v>3757124710.392692</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1539617910229867</v>
+        <v>0.20111296723819</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02274111890760947</v>
+        <v>0.02496566495722797</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1759345064.487643</v>
+        <v>1374822189.895711</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1601920246724268</v>
+        <v>0.1029821243294714</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04237232673988939</v>
+        <v>0.05005577983326032</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3718462926.16811</v>
+        <v>3958781516.914934</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1520604956150118</v>
+        <v>0.1646754942749314</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02636193336553235</v>
+        <v>0.02332871171087705</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1282072221.320622</v>
+        <v>1503954903.246953</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1986632756238252</v>
+        <v>0.1227001629572712</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02744666828413518</v>
+        <v>0.02784401069772545</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5269441719.123084</v>
+        <v>3671179096.620977</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08384125505917993</v>
+        <v>0.100510741076352</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03292656486754677</v>
+        <v>0.03932895230003138</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2313476192.081243</v>
+        <v>2907956884.991474</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1901057038080158</v>
+        <v>0.2039609438305362</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03030112663002199</v>
+        <v>0.03062148260362953</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2712076007.307829</v>
+        <v>3173228940.778394</v>
       </c>
       <c r="F61" t="n">
-        <v>0.175844223251938</v>
+        <v>0.1431911622784523</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02062222726002202</v>
+        <v>0.02606506538846053</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1702966664.249442</v>
+        <v>2100823045.328118</v>
       </c>
       <c r="F62" t="n">
-        <v>0.184047844236118</v>
+        <v>0.1733977185844657</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0409257573306224</v>
+        <v>0.03475372203197041</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4140832056.119771</v>
+        <v>5027468277.320708</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06883064594806744</v>
+        <v>0.07381277492576965</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04515070739099256</v>
+        <v>0.03915215991775265</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3372943641.730086</v>
+        <v>3971983295.581049</v>
       </c>
       <c r="F64" t="n">
-        <v>0.150436425821648</v>
+        <v>0.1178024041465617</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03019513542362564</v>
+        <v>0.02636643974391809</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5570253409.540164</v>
+        <v>3899172694.903525</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1667427635952557</v>
+        <v>0.1144893840984394</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0309761445867171</v>
+        <v>0.02291043702510459</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5629479102.527617</v>
+        <v>4327831130.766393</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1519412102976919</v>
+        <v>0.1568812807188909</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03495527883872421</v>
+        <v>0.04569733080376257</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2387850146.742414</v>
+        <v>2120862078.806101</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1000142298552249</v>
+        <v>0.0773019568158556</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04392060154701939</v>
+        <v>0.03891876146877016</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4682306634.456587</v>
+        <v>4932363037.742737</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1569004770346927</v>
+        <v>0.1359186783663456</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04073632242357035</v>
+        <v>0.04735815705702791</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2251258555.855907</v>
+        <v>1734076096.169136</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1796191686855732</v>
+        <v>0.1337749083555627</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04331508861724371</v>
+        <v>0.05724096280240429</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2927354713.605361</v>
+        <v>2730249339.58706</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08949661627181776</v>
+        <v>0.06393043767610841</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03777474398877393</v>
+        <v>0.04118918416639009</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,13 +2418,13 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4004081807.344327</v>
+        <v>4539170353.940869</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1278191811407433</v>
+        <v>0.1686625021657371</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03062260064858103</v>
+        <v>0.0206881722017064</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2268421225.852327</v>
+        <v>1688123403.947088</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07325945412686621</v>
+        <v>0.07608942105218153</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04637067729910284</v>
+        <v>0.04429814982407301</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3332664123.247987</v>
+        <v>2397814148.784016</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1029344700630953</v>
+        <v>0.085569741220952</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04731647822719894</v>
+        <v>0.03306726846812218</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2873953397.294403</v>
+        <v>3934411752.458118</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1337549774051305</v>
+        <v>0.1224926533487754</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02716965283508694</v>
+        <v>0.03556238079257272</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1839126014.576454</v>
+        <v>1510711277.63964</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1142705625253665</v>
+        <v>0.165903237033543</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02891002834830208</v>
+        <v>0.03685110440411292</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3559426159.262839</v>
+        <v>4750020736.815056</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07631696845106761</v>
+        <v>0.118159661900235</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02586711298168223</v>
+        <v>0.02175376950037036</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1641432966.777608</v>
+        <v>1633531822.612229</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1795852229487359</v>
+        <v>0.1469588675209045</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03045571174466701</v>
+        <v>0.02666834926243571</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3160943006.312305</v>
+        <v>3138779135.719319</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1188205891025981</v>
+        <v>0.1270282155627295</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05059368767646556</v>
+        <v>0.04737435332851716</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1736392829.155538</v>
+        <v>1538169601.178812</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1716387506245145</v>
+        <v>0.1305965713097612</v>
       </c>
       <c r="G79" t="n">
-        <v>0.033764589022171</v>
+        <v>0.04013363385280621</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5467102193.125364</v>
+        <v>4905663508.849845</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08725360392948787</v>
+        <v>0.1107241221050825</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02502685330812165</v>
+        <v>0.02569030180039674</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3929781291.047531</v>
+        <v>3401602811.342444</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1013441660843328</v>
+        <v>0.1360911909866355</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02770255386619175</v>
+        <v>0.03202077189665285</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4572763124.93971</v>
+        <v>5271633849.162787</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2140956305138518</v>
+        <v>0.1523121866886854</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02451135602810155</v>
+        <v>0.02035512448480921</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2032232577.496783</v>
+        <v>2123156771.045935</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1289483016961375</v>
+        <v>0.1275936481923432</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04306797340209961</v>
+        <v>0.03374147712973141</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2211331231.222032</v>
+        <v>1612555763.187175</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1109146776235552</v>
+        <v>0.08576991565017512</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04795490341041602</v>
+        <v>0.04498040950995347</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3094157263.208141</v>
+        <v>2809607218.781182</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1507575151220882</v>
+        <v>0.1685284735480792</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04404517762282735</v>
+        <v>0.03844890913029451</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2788797476.815569</v>
+        <v>1707229172.623469</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1430766548510953</v>
+        <v>0.1135586971931078</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02409621910776497</v>
+        <v>0.02603274526131286</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1175673770.609736</v>
+        <v>1149941984.818545</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1781699738622192</v>
+        <v>0.1658495204309572</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04191609914597757</v>
+        <v>0.02980034871780773</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2260067458.870095</v>
+        <v>2767148052.63517</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1454696701852072</v>
+        <v>0.1274228222277043</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02962872466136762</v>
+        <v>0.03915873334169567</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2119009931.487615</v>
+        <v>3122461441.408378</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1082527262232571</v>
+        <v>0.1206088830786429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03255918946017999</v>
+        <v>0.03100087829652045</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1523354987.524641</v>
+        <v>1361302152.318833</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1324784310151745</v>
+        <v>0.1015966652290497</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03491082858841113</v>
+        <v>0.05050714366936999</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1541688848.504994</v>
+        <v>1653323717.820536</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1713073171788596</v>
+        <v>0.1870807615963349</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04540889722526686</v>
+        <v>0.05878423557265511</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2077926196.714065</v>
+        <v>2632200893.035085</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09533957622638871</v>
+        <v>0.09249734735673419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03502057526548587</v>
+        <v>0.03478146044220609</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4337506782.296932</v>
+        <v>4275996379.182465</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08657328833622341</v>
+        <v>0.08846981251308676</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04700456255367007</v>
+        <v>0.03342195209249712</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2217040259.602963</v>
+        <v>1752949806.129313</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1583763234460475</v>
+        <v>0.1115933291315003</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03665260040184627</v>
+        <v>0.02767192239459701</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2513602221.62121</v>
+        <v>2959361594.552053</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1063961874039155</v>
+        <v>0.09875183771337674</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03651556118262601</v>
+        <v>0.04410592922121278</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1855893630.82647</v>
+        <v>2138034527.792016</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1027254154816079</v>
+        <v>0.1141960933721567</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03265009396834668</v>
+        <v>0.03597317543940458</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4997345735.254086</v>
+        <v>3294374796.598578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.107287446214034</v>
+        <v>0.1189063722802782</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02034625458496511</v>
+        <v>0.02559221355416278</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2604890381.430178</v>
+        <v>3001792390.028503</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09231999230142598</v>
+        <v>0.07855937158044138</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02338354182505622</v>
+        <v>0.02343646430093388</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,16 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2944749537.630807</v>
+        <v>2265765854.816827</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1025880160688959</v>
+        <v>0.1087982962552437</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02975090167245077</v>
+        <v>0.03190345523949827</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3747955627.924609</v>
+        <v>3461446962.538741</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1232815737126809</v>
+        <v>0.1335166439614609</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02557804752124642</v>
+        <v>0.01908440098239695</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2601474948.659742</v>
+        <v>2733341134.869944</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1914481123129925</v>
+        <v>0.1879872520919173</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0446786745535395</v>
+        <v>0.05647442514494791</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_50.xlsx
+++ b/output/fit_clients/fit_round_50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2105225966.097103</v>
+        <v>1799070044.453514</v>
       </c>
       <c r="F2" t="n">
-        <v>0.096238611274893</v>
+        <v>0.1006464619378081</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03406216085002887</v>
+        <v>0.02867900049212295</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1636100313.192033</v>
+        <v>2651644457.11712</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1474159639945847</v>
+        <v>0.1545966551798458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04117479857795985</v>
+        <v>0.03466525414642738</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4717415848.89759</v>
+        <v>3990954061.013987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1637477189901698</v>
+        <v>0.1006888139219154</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03549675155465243</v>
+        <v>0.03650916973275234</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>208.5450267639981</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2643610169.771171</v>
+        <v>3856762371.43232</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08823583735861043</v>
+        <v>0.09742492577481641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03245926171680364</v>
+        <v>0.04994037536277708</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" t="n">
+        <v>50</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2070686648.013093</v>
+        <v>2422432215.458293</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1259605531969887</v>
+        <v>0.09355629308003709</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05226037722557204</v>
+        <v>0.05320073088935728</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2922379237.410189</v>
+        <v>2665767203.273253</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0762646646943789</v>
+        <v>0.06706661137439317</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0457857192653383</v>
+        <v>0.03828354705040775</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3948165245.430215</v>
+        <v>3107818099.061442</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1439612201797558</v>
+        <v>0.1445276451509829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02091951307608274</v>
+        <v>0.02606530238508018</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>49</v>
+      </c>
+      <c r="K8" t="n">
+        <v>119.7664470330552</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1655504760.543027</v>
+        <v>1634311448.090695</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1789760253229215</v>
+        <v>0.1369177454819423</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03512145771967699</v>
+        <v>0.03173161634759303</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4692882087.818017</v>
+        <v>4708702377.223233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1991753034787301</v>
+        <v>0.1357290575799127</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03597037239047252</v>
+        <v>0.05410166751331641</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>46</v>
+      </c>
+      <c r="J10" t="n">
+        <v>50</v>
+      </c>
+      <c r="K10" t="n">
+        <v>231.4806375395334</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3641018643.421423</v>
+        <v>3678065789.507856</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1476020292515977</v>
+        <v>0.1389068349706994</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03232441287895321</v>
+        <v>0.04471212340573307</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2448166327.825887</v>
+        <v>2621041693.995056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1288510784036416</v>
+        <v>0.1504081561577839</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03662268407167723</v>
+        <v>0.04003609016929177</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3574755956.500426</v>
+        <v>4097166340.594582</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06459775073340927</v>
+        <v>0.06522990230778278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02047248221769347</v>
+        <v>0.01998650965715973</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25</v>
+      </c>
+      <c r="J13" t="n">
+        <v>49</v>
+      </c>
+      <c r="K13" t="n">
+        <v>206.0253060415138</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3557160997.250423</v>
+        <v>3103681456.383681</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1821743760961356</v>
+        <v>0.1267192035934975</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03148008984292157</v>
+        <v>0.03431594396126171</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1529246006.039185</v>
+        <v>1468730812.975718</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09814971651128949</v>
+        <v>0.1023941562798494</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04606124320519221</v>
+        <v>0.03272881820464931</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2389550778.593646</v>
+        <v>2241475274.316448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09224956178193952</v>
+        <v>0.1119432732153203</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0516173458733979</v>
+        <v>0.03192392887443737</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4542444496.634448</v>
+        <v>4079322419.174611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1281850041154052</v>
+        <v>0.1253380889203651</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04576363247131636</v>
+        <v>0.0429592112699359</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J17" t="n">
+        <v>49</v>
+      </c>
+      <c r="K17" t="n">
+        <v>190.8179746363469</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1071,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3760620140.602321</v>
+        <v>3914639195.246843</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1717358215573778</v>
+        <v>0.1224123360580452</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02132690965249207</v>
+        <v>0.03102369224660582</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>12</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49</v>
+      </c>
+      <c r="K18" t="n">
+        <v>195.9371941680414</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1108,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>955046505.5623988</v>
+        <v>1245750864.906696</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1546434987135194</v>
+        <v>0.167226818782528</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02046096033758057</v>
+        <v>0.02651381609740841</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2482991030.186461</v>
+        <v>2638088536.193745</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161875101657391</v>
+        <v>0.1058069309272289</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02728397163601638</v>
+        <v>0.02695121213434854</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2123832682.566956</v>
+        <v>1819686620.736008</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07630085521935277</v>
+        <v>0.07110290838438978</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04576741414834643</v>
+        <v>0.04499651243323693</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3516983502.580122</v>
+        <v>2704332886.96317</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1303533098148668</v>
+        <v>0.09848965671731713</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04671589272509993</v>
+        <v>0.03801105493929433</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>961358002.3679751</v>
+        <v>1416556594.748073</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1367791557259562</v>
+        <v>0.1284638114990979</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05359021830692042</v>
+        <v>0.03447266935496394</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1277,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2702496131.221938</v>
+        <v>3370654340.148778</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1118687105507762</v>
+        <v>0.1234693176828719</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02842686219895319</v>
+        <v>0.02579087406824647</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>49</v>
+      </c>
+      <c r="K24" t="n">
+        <v>137.2015813124228</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1320,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>958607113.252764</v>
+        <v>1173517513.285758</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1081765626978651</v>
+        <v>0.1068595297480722</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02412474505823962</v>
+        <v>0.02846094984681456</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1098600988.715754</v>
+        <v>1056737810.497322</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1031762216804294</v>
+        <v>0.1045098691375553</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03374596951055427</v>
+        <v>0.0248068226264702</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1384,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4161253265.89231</v>
+        <v>3536967696.18934</v>
       </c>
       <c r="F27" t="n">
-        <v>0.107118538558118</v>
+        <v>0.1118553187937718</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02206451089057657</v>
+        <v>0.01919284082036277</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>47</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,17 +1425,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3681221658.39742</v>
+        <v>3225368162.155266</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1249178643683754</v>
+        <v>0.1450869625157747</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03811624120379491</v>
+        <v>0.04094684864904925</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>47</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4089919422.088531</v>
+        <v>4540778096.509928</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1264849795685981</v>
+        <v>0.1025517830243262</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0364246942716848</v>
+        <v>0.04156736761479864</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>50</v>
+      </c>
+      <c r="K29" t="n">
+        <v>236.8691712461404</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1936579851.569813</v>
+        <v>1881456646.999163</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1214003573852148</v>
+        <v>0.1353261085345986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03576941616251225</v>
+        <v>0.02629805917550201</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1433182055.084054</v>
+        <v>1474596991.799207</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09537740754658892</v>
+        <v>0.0966386499492996</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04335266810726599</v>
+        <v>0.04905153427735084</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1567,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1498237863.984722</v>
+        <v>1337021576.713395</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1009162858776643</v>
+        <v>0.08306435417757038</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03367104602956912</v>
+        <v>0.02870100253113068</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2163456484.289358</v>
+        <v>2811646779.251072</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1738130003520531</v>
+        <v>0.1725193560482967</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04971315776079766</v>
+        <v>0.05795598402856084</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1637,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1238843044.006123</v>
+        <v>1119087999.884213</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1077496495939378</v>
+        <v>0.1110156050506879</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02355543277521217</v>
+        <v>0.01918223654013085</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1343583749.487604</v>
+        <v>1195199208.196922</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07313029391098463</v>
+        <v>0.07507798442006541</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03136439336857841</v>
+        <v>0.03535078287734171</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2103641641.779168</v>
+        <v>2910824638.795319</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587776377838364</v>
+        <v>0.1448587332331175</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02102359388907972</v>
+        <v>0.02775177996879677</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1798031782.433374</v>
+        <v>2847820801.402873</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09276447495365271</v>
+        <v>0.0900820094273606</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03077168565529814</v>
+        <v>0.03641442001151972</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1777,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2044112694.145581</v>
+        <v>1748071101.01852</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08524584153850748</v>
+        <v>0.08811058079143932</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02785016660125044</v>
+        <v>0.03414311371155482</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2098939989.573083</v>
+        <v>1554108667.401679</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1800768904375627</v>
+        <v>0.1720385616674198</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02048092021852115</v>
+        <v>0.02233805057355483</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1794248801.973032</v>
+        <v>1562867074.112066</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1322480910069994</v>
+        <v>0.1338095333691052</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0590256698649558</v>
+        <v>0.05122710712535979</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2786574355.63903</v>
+        <v>2801669225.96125</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1201673158718128</v>
+        <v>0.1070834069875975</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04369103819126765</v>
+        <v>0.0470647177197852</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3063150139.589594</v>
+        <v>4228725972.580792</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0769836018348625</v>
+        <v>0.1018593746601084</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04573641335640678</v>
+        <v>0.03617688166368857</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>17</v>
+      </c>
+      <c r="J42" t="n">
+        <v>50</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2681233289.093677</v>
+        <v>2148074423.883383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1743021382428424</v>
+        <v>0.159443091311274</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02283335766921344</v>
+        <v>0.0231331059980379</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2231189417.411201</v>
+        <v>1640937999.32602</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1020742146956551</v>
+        <v>0.09427597733999406</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03130025460761195</v>
+        <v>0.02764828649587039</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2022,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1990796150.073844</v>
+        <v>2207151846.958395</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1668973238971488</v>
+        <v>0.1708705079277918</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03984164695598292</v>
+        <v>0.04078976262669775</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2057,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4803228321.181678</v>
+        <v>5613492089.124344</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1711842175074574</v>
+        <v>0.1374996342061279</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04677837537165835</v>
+        <v>0.05451894836893695</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>30</v>
+      </c>
+      <c r="J46" t="n">
+        <v>50</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4024732838.069316</v>
+        <v>5190901165.784102</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1336756596038371</v>
+        <v>0.1755214628421322</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05522291374059771</v>
+        <v>0.04212207845834705</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
+      <c r="J47" t="n">
+        <v>50</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3416316503.988579</v>
+        <v>4195018196.835694</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08145824156989129</v>
+        <v>0.08816944598292473</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02501871822514887</v>
+        <v>0.03056135538860076</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>50</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1597479265.902069</v>
+        <v>1478495617.05157</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1435638295433567</v>
+        <v>0.1589157586749331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04046024520949346</v>
+        <v>0.04359401646469255</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3342352555.418354</v>
+        <v>3704978198.932948</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1679656606946702</v>
+        <v>0.1729790746784436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04708786302591358</v>
+        <v>0.05312036066603028</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>50</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1255834703.167946</v>
+        <v>1155373343.304483</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1444280383167002</v>
+        <v>0.1851112544349053</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05245419502624033</v>
+        <v>0.04171180997419637</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4104062008.386368</v>
+        <v>3912211211.610671</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1391536223403219</v>
+        <v>0.1213003562645518</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04277877403055847</v>
+        <v>0.05066044088978162</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>38</v>
+      </c>
+      <c r="J52" t="n">
+        <v>50</v>
+      </c>
+      <c r="K52" t="n">
+        <v>214.1367948740262</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3621970746.663897</v>
+        <v>3241999225.293509</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1620209903790605</v>
+        <v>0.1965905017127118</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03128219159377976</v>
+        <v>0.02892122518984407</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4785701860.253053</v>
+        <v>4057595303.298442</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1626066015742</v>
+        <v>0.1291858621654291</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04854099531154731</v>
+        <v>0.03246376624782455</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>22</v>
+      </c>
+      <c r="J54" t="n">
+        <v>49</v>
+      </c>
+      <c r="K54" t="n">
+        <v>202.6937132273431</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3757124710.392692</v>
+        <v>4574778276.133087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.20111296723819</v>
+        <v>0.2033418640148126</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02496566495722797</v>
+        <v>0.03075933159799247</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>50</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1374822189.895711</v>
+        <v>1370247301.190054</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1029821243294714</v>
+        <v>0.1517464432402376</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05005577983326032</v>
+        <v>0.04027316696428462</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3958781516.914934</v>
+        <v>3037550636.807932</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1646754942749314</v>
+        <v>0.1406439713842649</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02332871171087705</v>
+        <v>0.02351854543261819</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>18</v>
+      </c>
+      <c r="J57" t="n">
+        <v>49</v>
+      </c>
+      <c r="K57" t="n">
+        <v>113.0708306105795</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1503954903.246953</v>
+        <v>1404705428.939058</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1227001629572712</v>
+        <v>0.1400819604206118</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02784401069772545</v>
+        <v>0.03247288572820269</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2518,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3671179096.620977</v>
+        <v>3886364889.254045</v>
       </c>
       <c r="F59" t="n">
-        <v>0.100510741076352</v>
+        <v>0.1214755627122778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03932895230003138</v>
+        <v>0.03944945264987006</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24</v>
+      </c>
+      <c r="J59" t="n">
+        <v>49</v>
+      </c>
+      <c r="K59" t="n">
+        <v>173.0561339951253</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2907956884.991474</v>
+        <v>3691697651.119328</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2039609438305362</v>
+        <v>0.1824646913958075</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03062148260362953</v>
+        <v>0.02821490186625989</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>50</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3173228940.778394</v>
+        <v>2553042333.3434</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1431911622784523</v>
+        <v>0.1451549721523237</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02606506538846053</v>
+        <v>0.03215614845115702</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2100823045.328118</v>
+        <v>2089908335.872062</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1733977185844657</v>
+        <v>0.1551069461981186</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03475372203197041</v>
+        <v>0.04975593298819545</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5027468277.320708</v>
+        <v>4036646671.692646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07381277492576965</v>
+        <v>0.08885446559196553</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03915215991775265</v>
+        <v>0.0404943521756002</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>24</v>
+      </c>
+      <c r="J63" t="n">
+        <v>50</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3971983295.581049</v>
+        <v>5295617858.881053</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1178024041465617</v>
+        <v>0.12419167388016</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02636643974391809</v>
+        <v>0.02958591422115564</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+      <c r="J64" t="n">
+        <v>49</v>
+      </c>
+      <c r="K64" t="n">
+        <v>194.0514732278664</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3899172694.903525</v>
+        <v>5705765063.14965</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1144893840984394</v>
+        <v>0.1674628471371762</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02291043702510459</v>
+        <v>0.03181543959800147</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>41</v>
+      </c>
+      <c r="J65" t="n">
+        <v>50</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2767,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4327831130.766393</v>
+        <v>4990398498.929908</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1568812807188909</v>
+        <v>0.1290018247428665</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04569733080376257</v>
+        <v>0.03077667102814468</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+      <c r="J66" t="n">
+        <v>49</v>
+      </c>
+      <c r="K66" t="n">
+        <v>189.8664308909624</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2120862078.806101</v>
+        <v>2701344628.684277</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0773019568158556</v>
+        <v>0.09815061995515073</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03891876146877016</v>
+        <v>0.03618699790553172</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4932363037.742737</v>
+        <v>4133978028.130386</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1359186783663456</v>
+        <v>0.1405529826168495</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04735815705702791</v>
+        <v>0.03716449777667996</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+      <c r="J68" t="n">
+        <v>49</v>
+      </c>
+      <c r="K68" t="n">
+        <v>196.5232493496559</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1734076096.169136</v>
+        <v>2422775934.751116</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1337749083555627</v>
+        <v>0.1234635359263552</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05724096280240429</v>
+        <v>0.05321408399789419</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2730249339.58706</v>
+        <v>3055688441.938954</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06393043767610841</v>
+        <v>0.06326891796650723</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04118918416639009</v>
+        <v>0.04800888561048968</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4539170353.940869</v>
+        <v>3783922400.371218</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1686625021657371</v>
+        <v>0.1392336780332274</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0206881722017064</v>
+        <v>0.02971684256646014</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>41</v>
+      </c>
+      <c r="J71" t="n">
+        <v>49</v>
+      </c>
+      <c r="K71" t="n">
+        <v>189.8917881918714</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1688123403.947088</v>
+        <v>1958657498.293196</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07608942105218153</v>
+        <v>0.06950400884661337</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04429814982407301</v>
+        <v>0.05260710784101683</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2397814148.784016</v>
+        <v>2407809924.226013</v>
       </c>
       <c r="F73" t="n">
-        <v>0.085569741220952</v>
+        <v>0.1073984875639286</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03306726846812218</v>
+        <v>0.04704979753774027</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3934411752.458118</v>
+        <v>3973397000.454986</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1224926533487754</v>
+        <v>0.1168918750506117</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03556238079257272</v>
+        <v>0.03367124302527053</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>15</v>
+      </c>
+      <c r="J74" t="n">
+        <v>50</v>
+      </c>
+      <c r="K74" t="n">
+        <v>207.7909111203696</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1510711277.63964</v>
+        <v>2495912855.664181</v>
       </c>
       <c r="F75" t="n">
-        <v>0.165903237033543</v>
+        <v>0.1492458044371596</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03685110440411292</v>
+        <v>0.02324875147113885</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4750020736.815056</v>
+        <v>3473238399.296383</v>
       </c>
       <c r="F76" t="n">
-        <v>0.118159661900235</v>
+        <v>0.09934623434078695</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02175376950037036</v>
+        <v>0.02158128151232695</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>23</v>
+      </c>
+      <c r="J76" t="n">
+        <v>48</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1633531822.612229</v>
+        <v>1496881497.072073</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1469588675209045</v>
+        <v>0.168188838394473</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02666834926243571</v>
+        <v>0.01986059124288461</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3138779135.719319</v>
+        <v>4804387114.248754</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1270282155627295</v>
+        <v>0.1234251407504148</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04737435332851716</v>
+        <v>0.03885039905162161</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>21</v>
+      </c>
+      <c r="J78" t="n">
+        <v>50</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1538169601.178812</v>
+        <v>1897089764.045368</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1305965713097612</v>
+        <v>0.1748905702429872</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04013363385280621</v>
+        <v>0.03551466627530066</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3265,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4905663508.849845</v>
+        <v>4859969315.946416</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107241221050825</v>
+        <v>0.07990339963672664</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02569030180039674</v>
+        <v>0.02439566102495093</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>24</v>
+      </c>
+      <c r="J80" t="n">
+        <v>49</v>
+      </c>
+      <c r="K80" t="n">
+        <v>163.5517544056561</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3401602811.342444</v>
+        <v>3168735515.795489</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1360911909866355</v>
+        <v>0.118182416733288</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03202077189665285</v>
+        <v>0.02539688065632634</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>22</v>
+      </c>
+      <c r="J81" t="n">
+        <v>49</v>
+      </c>
+      <c r="K81" t="n">
+        <v>105.6513499736424</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5271633849.162787</v>
+        <v>5637692414.808649</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1523121866886854</v>
+        <v>0.2148287088130706</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02035512448480921</v>
+        <v>0.0290916841802556</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>50</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2123156771.045935</v>
+        <v>2291858210.016773</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1275936481923432</v>
+        <v>0.1086473864309594</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03374147712973141</v>
+        <v>0.02813884258290717</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1612555763.187175</v>
+        <v>2072218543.158908</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08576991565017512</v>
+        <v>0.0918384411547452</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04498040950995347</v>
+        <v>0.04599066159878262</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2809607218.781182</v>
+        <v>3151832998.576382</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1685284735480792</v>
+        <v>0.1663447211593976</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03844890913029451</v>
+        <v>0.04487561379023007</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>9</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1707229172.623469</v>
+        <v>1869274195.103414</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1135586971931078</v>
+        <v>0.1603453254057944</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02603274526131286</v>
+        <v>0.02157981679250881</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1149941984.818545</v>
+        <v>1166197987.390162</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1658495204309572</v>
+        <v>0.1658023108956101</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02980034871780773</v>
+        <v>0.02948760122335994</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2767148052.63517</v>
+        <v>2328960181.166562</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1274228222277043</v>
+        <v>0.1683761536841007</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03915873334169567</v>
+        <v>0.03942286294164903</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3122461441.408378</v>
+        <v>2439766872.969476</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1206088830786429</v>
+        <v>0.1020179166999554</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03100087829652045</v>
+        <v>0.03326525690424106</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1361302152.318833</v>
+        <v>1560894190.538757</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1015966652290497</v>
+        <v>0.1190925522555293</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05050714366936999</v>
+        <v>0.04129758653848918</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1653323717.820536</v>
+        <v>1998693313.04307</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1870807615963349</v>
+        <v>0.1384720290887016</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05878423557265511</v>
+        <v>0.05703864895803872</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2632200893.035085</v>
+        <v>2841734164.936506</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09249734735673419</v>
+        <v>0.09745492308880449</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03478146044220609</v>
+        <v>0.03175984515923916</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4275996379.182465</v>
+        <v>3778277265.076529</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08846981251308676</v>
+        <v>0.09845145814447508</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03342195209249712</v>
+        <v>0.03440741000676213</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>22</v>
+      </c>
+      <c r="J93" t="n">
+        <v>50</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1752949806.129313</v>
+        <v>2411290119.363033</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1115933291315003</v>
+        <v>0.1046516685428452</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02767192239459701</v>
+        <v>0.03413227078612407</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2959361594.552053</v>
+        <v>3073246620.006387</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09875183771337674</v>
+        <v>0.1128581491951945</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04410592922121278</v>
+        <v>0.0426756379850652</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2138034527.792016</v>
+        <v>2122394010.888757</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1141960933721567</v>
+        <v>0.08658997629428339</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03597317543940458</v>
+        <v>0.03969375401588391</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3294374796.598578</v>
+        <v>4054137842.046469</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1189063722802782</v>
+        <v>0.138658789666874</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02559221355416278</v>
+        <v>0.02530651366125997</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>24</v>
+      </c>
+      <c r="J97" t="n">
+        <v>50</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3001792390.028503</v>
+        <v>3192267351.229659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07855937158044138</v>
+        <v>0.1243593085484222</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02343646430093388</v>
+        <v>0.028898052931211</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>12</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2265765854.816827</v>
+        <v>2263662415.62781</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1087982962552437</v>
+        <v>0.1351865767590636</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03190345523949827</v>
+        <v>0.03295720586625785</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3461446962.538741</v>
+        <v>2919550029.602432</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1335166439614609</v>
+        <v>0.1202763676791491</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01908440098239695</v>
+        <v>0.01861798452268126</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>22</v>
+      </c>
+      <c r="J100" t="n">
+        <v>49</v>
+      </c>
+      <c r="K100" t="n">
+        <v>102.2276228479616</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2733341134.869944</v>
+        <v>2578419358.880003</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1879872520919173</v>
+        <v>0.168280722319661</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05647442514494791</v>
+        <v>0.04568565468797111</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
